--- a/src/main/resources/static/modalFile/modifyStudent.xlsx
+++ b/src/main/resources/static/modalFile/modifyStudent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="22185" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="已选学生信息" sheetId="1" r:id="rId1"/>
@@ -17,25 +17,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
+    <t>培养层次编码</t>
+  </si>
+  <si>
+    <t>所在系部编码</t>
+  </si>
+  <si>
+    <t>年级编码</t>
+  </si>
+  <si>
+    <t>专业编码</t>
+  </si>
+  <si>
+    <t>行政班ID</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
     <t>学生编码</t>
-  </si>
-  <si>
-    <t>培养层次编码</t>
-  </si>
-  <si>
-    <t>所在系部编码</t>
-  </si>
-  <si>
-    <t>年级编码</t>
-  </si>
-  <si>
-    <t>专业编码</t>
-  </si>
-  <si>
-    <t>行政班ID</t>
-  </si>
-  <si>
-    <t>学号</t>
   </si>
   <si>
     <t>学生姓名</t>
@@ -137,9 +137,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -158,52 +158,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,78 +287,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,25 +303,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,103 +447,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,49 +471,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,17 +506,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,11 +530,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,17 +575,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,17 +594,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -602,10 +602,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,133 +614,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,14 +1076,14 @@
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="7" width="9" style="1"/>
+    <col min="1" max="7" width="9" style="1"/>
     <col min="8" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
@@ -1101,7 +1101,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1221,26 +1221,23 @@
       <c r="V2" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="J1 L1 M1 V1 K1:K3 K4:K1048576 N1:N3 N4:N1048576 C1:H3 C4:H1048576"/>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="提示" error="学生编码不能为空" promptTitle="提示" prompt="学生编码不能为空" sqref="A1:A3 A4:A1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="B1:B3 B4:B1048576" errorStyle="warning"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="不得早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="V2:V3 V4:V1048576">
+  <dataValidations count="7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="J1 L1 M1 V1 F$1:F$1048576 G$1:G$1048576 H$1:H$1048576 K$1:K$1048576 N$1:N$1048576 B$1:E$1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="A$1:A$1048576" errorStyle="warning"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="不得早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="V2:V1048576">
       <formula1>32874</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="J2:J3 J4:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="J2:J1048576">
       <formula1>"M,F"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3 O4:O1048576 AH2:AI3 AE2:AF3 AH4:AI1048576 AE4:AF1048576">
-      <formula1>"T,F"</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="日期不能早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="L2:L3 L4:L1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="日期不能早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="L2:L1048576">
       <formula1>32874</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="请输入正确的18位身份证号码" promptTitle="提示：" prompt="不能为空" sqref="M2:M3 M4:M1048576">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="请输入正确的18位身份证号码" promptTitle="提示：" prompt="不能为空" sqref="M2:M1048576">
       <formula1>18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 AH2:AI1048576 AE2:AF1048576">
+      <formula1>"T,F"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
